--- a/03.要件定義/〇×ゲーム_システム構成図.xlsx
+++ b/03.要件定義/〇×ゲーム_システム構成図.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="18420" windowHeight="12825" tabRatio="851" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="18420" windowHeight="12825" tabRatio="851"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>変更履歴</t>
     <rPh sb="0" eb="2">
@@ -128,47 +128,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>指し手情報を割り出しDBへ登録</t>
-    <rPh sb="0" eb="1">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1手ごとに盤面情報の差異を調べ、</t>
-    <rPh sb="1" eb="2">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>バンメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>シラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>シート【システム構成図】</t>
     <rPh sb="8" eb="10">
       <t>コウセイ</t>
@@ -176,85 +135,6 @@
     <rPh sb="10" eb="11">
       <t>ズ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>盤面情報を送信し、サーバーで指し手情報を割り出すこととした。</t>
-    <rPh sb="0" eb="2">
-      <t>バンメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>JSONで配列を送信する際、個別に送信するのが困難と思われたため</t>
-    <rPh sb="5" eb="7">
-      <t>ハイレツ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>コベツ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>コンナン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>当初は指し手情報をサーバーに送信する予定であったが、</t>
-    <rPh sb="0" eb="2">
-      <t>トウショ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>(※2)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -327,103 +207,6 @@
   <si>
     <t>〇×ゲーム</t>
     <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <t>返ってきた指し手情報を</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>合わせた盤面情報を</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>サーバーに送信する。</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>(※2)</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>取得した情報ブラウザへ送信し画面表示</t>
-    <rPh sb="0" eb="2">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>指し手情報、ロジック情報、勝敗判定から生まれた勝敗結果情報を</t>
-    <rPh sb="0" eb="1">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ショウハイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ショウハイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>勝敗結果情報をDBへ登録</t>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ptc 荒張</t>
@@ -502,6 +285,99 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>返ってきた指し手情報を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>サーバーに送信する。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <r>
+      <t>取得した情報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ブラウザへ送信し画面表示</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クライアントが送信する情報を実際のプログラムの変更に合わせて修正。</t>
+    <rPh sb="7" eb="9">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>システム構成図の再設計のため</t>
+    <rPh sb="4" eb="6">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>サイセッケイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -857,7 +733,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
@@ -930,9 +806,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -950,6 +823,10 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -998,10 +875,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1033,66 +906,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>94</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="角丸四角形 67"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3848100" y="8286750"/>
-          <a:ext cx="6981825" cy="2762250"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
@@ -1274,7 +1087,7 @@
       <xdr:col>78</xdr:col>
       <xdr:colOff>104776</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1284,7 +1097,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7486651" y="5143500"/>
-          <a:ext cx="1600200" cy="1733549"/>
+          <a:ext cx="1600200" cy="1876425"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1346,15 +1159,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1363,8 +1176,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="352425" y="2114550"/>
-          <a:ext cx="1838326" cy="3914776"/>
+          <a:off x="361950" y="2447924"/>
+          <a:ext cx="1838326" cy="3457575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1422,14 +1235,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1438,7 +1251,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="428626" y="4552950"/>
+          <a:off x="428626" y="4352925"/>
           <a:ext cx="1352550" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1856,15 +1669,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1873,7 +1686,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="466726" y="4905376"/>
+          <a:off x="542926" y="4705351"/>
           <a:ext cx="1057274" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3333,8 +3146,8 @@
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3343,8 +3156,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3867150" y="3581400"/>
-          <a:ext cx="1924050" cy="1257299"/>
+          <a:off x="3933825" y="3581400"/>
+          <a:ext cx="1924050" cy="1743075"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDrum">
           <a:avLst/>
@@ -3533,16 +3346,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3551,7 +3364,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533401" y="2686051"/>
+          <a:off x="514351" y="2933701"/>
           <a:ext cx="933449" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3603,15 +3416,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3620,7 +3433,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="5334001"/>
+          <a:off x="561975" y="5124451"/>
           <a:ext cx="942976" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4060,14 +3873,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>66</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4077,7 +3890,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7658100" y="5524500"/>
+          <a:off x="7677150" y="5905500"/>
           <a:ext cx="962025" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4116,20 +3929,24 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>指し手情報</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4138,15 +3955,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>66</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>77</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4155,8 +3972,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7648575" y="5905500"/>
-          <a:ext cx="1238250" cy="304800"/>
+          <a:off x="7677150" y="6296025"/>
+          <a:ext cx="971550" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4197,7 +4014,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>システム</a:t>
+            <a:t>イベント</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -4215,7 +4032,11 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4231,8 +4052,8 @@
     <xdr:to>
       <xdr:col>78</xdr:col>
       <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4242,7 +4063,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7467601" y="1714500"/>
-          <a:ext cx="1619250" cy="1704975"/>
+          <a:ext cx="1619250" cy="1790700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4304,15 +4125,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>66</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4321,7 +4142,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620000" y="2114550"/>
+          <a:off x="7658100" y="2400300"/>
           <a:ext cx="962025" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4360,106 +4181,24 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>指し手情報</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>77</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="角丸四角形 52"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7581900" y="2505075"/>
-          <a:ext cx="1238250" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="B7F3DF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>システム</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>情報</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4468,101 +4207,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="角丸四角形 53"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4181475" y="4162425"/>
-          <a:ext cx="1238250" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="B7F3DF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>システム</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>情報</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4571,7 +4224,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4191000" y="3819525"/>
+          <a:off x="4200525" y="4210050"/>
           <a:ext cx="962025" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4610,20 +4263,24 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>指し手情報</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4958,75 +4615,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="角丸四角形 61"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="457200" y="3162301"/>
-          <a:ext cx="1143000" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="B7F3DF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>指し手割り出し</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>52</xdr:row>
@@ -5475,63 +5063,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="70" name="直線コネクタ 69"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="504825" y="3314701"/>
-          <a:ext cx="1181100" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5540,7 +5079,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="542925" y="4086225"/>
+          <a:off x="504825" y="3857625"/>
           <a:ext cx="942976" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5579,7 +5118,7 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>指し手情報</a:t>
@@ -5642,15 +5181,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>66</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>75</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5659,8 +5198,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7658100" y="2905125"/>
-          <a:ext cx="1028700" cy="304800"/>
+          <a:off x="7648575" y="3124200"/>
+          <a:ext cx="1000125" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5720,15 +5259,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>66</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>75</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5737,8 +5276,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7667625" y="6372225"/>
-          <a:ext cx="1028700" cy="304800"/>
+          <a:off x="7677150" y="6686550"/>
+          <a:ext cx="990600" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5799,14 +5338,14 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5815,8 +5354,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4200525" y="4505325"/>
-          <a:ext cx="1028700" cy="304800"/>
+          <a:off x="4200525" y="4972050"/>
+          <a:ext cx="962025" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5854,20 +5393,24 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>ロジック情報</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5953,15 +5496,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5970,7 +5513,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="552451" y="3600451"/>
+          <a:off x="523876" y="3400426"/>
           <a:ext cx="933449" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6014,6 +5557,456 @@
             </a:rPr>
             <a:t>勝敗判定</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="角丸四角形 77"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7677150" y="5524500"/>
+          <a:ext cx="962025" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="B7F3DF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>アドレス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="角丸四角形 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7648575" y="2762250"/>
+          <a:ext cx="990600" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="B7F3DF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>イベント</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="角丸四角形 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7639050" y="2028825"/>
+          <a:ext cx="962025" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="B7F3DF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>アドレス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="角丸四角形 81"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4200525" y="3857625"/>
+          <a:ext cx="962025" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="B7F3DF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>アドレス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="角丸四角形 82"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="4581525"/>
+          <a:ext cx="971550" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="B7F3DF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>イベント</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6287,8 +6280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6350,11 +6343,11 @@
         <v>9</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="24" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>13</v>
@@ -6365,36 +6358,52 @@
         <v>2</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E6" s="22">
         <v>42954</v>
       </c>
-      <c r="F6" s="57" t="s">
-        <v>38</v>
+      <c r="F6" s="40" t="s">
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
+    <row r="7" spans="2:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="C7" s="26">
+        <v>3</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="22">
+        <v>43026</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C8" s="28"/>
@@ -6407,54 +6416,54 @@
       <c r="J8" s="31"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="30"/>
-      <c r="F9" s="33"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="31"/>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
       <c r="J9" s="31"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="30"/>
-      <c r="F10" s="33"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="30"/>
-      <c r="F11" s="33"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="31"/>
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="30"/>
-      <c r="F12" s="33"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="31"/>
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="30"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C14" s="28"/>
@@ -6490,8 +6499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS73"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="CI21" sqref="CI21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6501,412 +6510,412 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43" t="s">
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="43"/>
-      <c r="AQ1" s="43"/>
-      <c r="AR1" s="43"/>
-      <c r="AS1" s="43"/>
-      <c r="AT1" s="43"/>
-      <c r="AU1" s="43"/>
-      <c r="AV1" s="43"/>
-      <c r="AW1" s="43"/>
-      <c r="AX1" s="43"/>
-      <c r="AY1" s="43"/>
-      <c r="AZ1" s="43"/>
-      <c r="BA1" s="43"/>
-      <c r="BB1" s="43"/>
-      <c r="BC1" s="43"/>
-      <c r="BD1" s="43"/>
-      <c r="BE1" s="43"/>
-      <c r="BF1" s="43"/>
-      <c r="BG1" s="43"/>
-      <c r="BH1" s="43"/>
-      <c r="BI1" s="43"/>
-      <c r="BJ1" s="43"/>
-      <c r="BK1" s="43"/>
-      <c r="BL1" s="43"/>
-      <c r="BM1" s="43"/>
-      <c r="BN1" s="43"/>
-      <c r="BO1" s="43"/>
-      <c r="BP1" s="43"/>
-      <c r="BQ1" s="43"/>
-      <c r="BR1" s="43"/>
-      <c r="BS1" s="43"/>
-      <c r="BT1" s="43"/>
-      <c r="BU1" s="43"/>
-      <c r="BV1" s="43"/>
-      <c r="BW1" s="43" t="s">
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44"/>
+      <c r="AW1" s="44"/>
+      <c r="AX1" s="44"/>
+      <c r="AY1" s="44"/>
+      <c r="AZ1" s="44"/>
+      <c r="BA1" s="44"/>
+      <c r="BB1" s="44"/>
+      <c r="BC1" s="44"/>
+      <c r="BD1" s="44"/>
+      <c r="BE1" s="44"/>
+      <c r="BF1" s="44"/>
+      <c r="BG1" s="44"/>
+      <c r="BH1" s="44"/>
+      <c r="BI1" s="44"/>
+      <c r="BJ1" s="44"/>
+      <c r="BK1" s="44"/>
+      <c r="BL1" s="44"/>
+      <c r="BM1" s="44"/>
+      <c r="BN1" s="44"/>
+      <c r="BO1" s="44"/>
+      <c r="BP1" s="44"/>
+      <c r="BQ1" s="44"/>
+      <c r="BR1" s="44"/>
+      <c r="BS1" s="44"/>
+      <c r="BT1" s="44"/>
+      <c r="BU1" s="44"/>
+      <c r="BV1" s="44"/>
+      <c r="BW1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="BX1" s="43"/>
-      <c r="BY1" s="43"/>
-      <c r="BZ1" s="43"/>
-      <c r="CA1" s="43"/>
-      <c r="CB1" s="43"/>
-      <c r="CC1" s="43"/>
-      <c r="CD1" s="43"/>
-      <c r="CE1" s="43"/>
-      <c r="CF1" s="43"/>
-      <c r="CG1" s="43"/>
-      <c r="CH1" s="43"/>
-      <c r="CI1" s="43"/>
-      <c r="CJ1" s="43"/>
-      <c r="CK1" s="43"/>
-      <c r="CL1" s="43"/>
-      <c r="CM1" s="43"/>
-      <c r="CN1" s="43"/>
-      <c r="CO1" s="43"/>
-      <c r="CP1" s="43"/>
-      <c r="CQ1" s="43"/>
-      <c r="CR1" s="46"/>
+      <c r="BX1" s="44"/>
+      <c r="BY1" s="44"/>
+      <c r="BZ1" s="44"/>
+      <c r="CA1" s="44"/>
+      <c r="CB1" s="44"/>
+      <c r="CC1" s="44"/>
+      <c r="CD1" s="44"/>
+      <c r="CE1" s="44"/>
+      <c r="CF1" s="44"/>
+      <c r="CG1" s="44"/>
+      <c r="CH1" s="44"/>
+      <c r="CI1" s="44"/>
+      <c r="CJ1" s="44"/>
+      <c r="CK1" s="44"/>
+      <c r="CL1" s="44"/>
+      <c r="CM1" s="44"/>
+      <c r="CN1" s="44"/>
+      <c r="CO1" s="44"/>
+      <c r="CP1" s="44"/>
+      <c r="CQ1" s="44"/>
+      <c r="CR1" s="47"/>
     </row>
     <row r="2" spans="1:96" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="45"/>
-      <c r="AO2" s="45"/>
-      <c r="AP2" s="45"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="45"/>
-      <c r="AS2" s="45"/>
-      <c r="AT2" s="45"/>
-      <c r="AU2" s="45"/>
-      <c r="AV2" s="45"/>
-      <c r="AW2" s="45"/>
-      <c r="AX2" s="45"/>
-      <c r="AY2" s="45"/>
-      <c r="AZ2" s="45"/>
-      <c r="BA2" s="45"/>
-      <c r="BB2" s="45"/>
-      <c r="BC2" s="45"/>
-      <c r="BD2" s="45"/>
-      <c r="BE2" s="45"/>
-      <c r="BF2" s="45"/>
-      <c r="BG2" s="45"/>
-      <c r="BH2" s="45"/>
-      <c r="BI2" s="45"/>
-      <c r="BJ2" s="45"/>
-      <c r="BK2" s="45"/>
-      <c r="BL2" s="45"/>
-      <c r="BM2" s="45"/>
-      <c r="BN2" s="45"/>
-      <c r="BO2" s="45"/>
-      <c r="BP2" s="45"/>
-      <c r="BQ2" s="45"/>
-      <c r="BR2" s="45"/>
-      <c r="BS2" s="45"/>
-      <c r="BT2" s="45"/>
-      <c r="BU2" s="45"/>
-      <c r="BV2" s="45"/>
-      <c r="BW2" s="45"/>
-      <c r="BX2" s="45"/>
-      <c r="BY2" s="45"/>
-      <c r="BZ2" s="45"/>
-      <c r="CA2" s="45"/>
-      <c r="CB2" s="45"/>
-      <c r="CC2" s="45"/>
-      <c r="CD2" s="45"/>
-      <c r="CE2" s="45"/>
-      <c r="CF2" s="45"/>
-      <c r="CG2" s="45"/>
-      <c r="CH2" s="45"/>
-      <c r="CI2" s="45"/>
-      <c r="CJ2" s="45"/>
-      <c r="CK2" s="45"/>
-      <c r="CL2" s="45"/>
-      <c r="CM2" s="45"/>
-      <c r="CN2" s="45"/>
-      <c r="CO2" s="45"/>
-      <c r="CP2" s="45"/>
-      <c r="CQ2" s="45"/>
-      <c r="CR2" s="47"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="46"/>
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="46"/>
+      <c r="AN2" s="46"/>
+      <c r="AO2" s="46"/>
+      <c r="AP2" s="46"/>
+      <c r="AQ2" s="46"/>
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="46"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="46"/>
+      <c r="AV2" s="46"/>
+      <c r="AW2" s="46"/>
+      <c r="AX2" s="46"/>
+      <c r="AY2" s="46"/>
+      <c r="AZ2" s="46"/>
+      <c r="BA2" s="46"/>
+      <c r="BB2" s="46"/>
+      <c r="BC2" s="46"/>
+      <c r="BD2" s="46"/>
+      <c r="BE2" s="46"/>
+      <c r="BF2" s="46"/>
+      <c r="BG2" s="46"/>
+      <c r="BH2" s="46"/>
+      <c r="BI2" s="46"/>
+      <c r="BJ2" s="46"/>
+      <c r="BK2" s="46"/>
+      <c r="BL2" s="46"/>
+      <c r="BM2" s="46"/>
+      <c r="BN2" s="46"/>
+      <c r="BO2" s="46"/>
+      <c r="BP2" s="46"/>
+      <c r="BQ2" s="46"/>
+      <c r="BR2" s="46"/>
+      <c r="BS2" s="46"/>
+      <c r="BT2" s="46"/>
+      <c r="BU2" s="46"/>
+      <c r="BV2" s="46"/>
+      <c r="BW2" s="46"/>
+      <c r="BX2" s="46"/>
+      <c r="BY2" s="46"/>
+      <c r="BZ2" s="46"/>
+      <c r="CA2" s="46"/>
+      <c r="CB2" s="46"/>
+      <c r="CC2" s="46"/>
+      <c r="CD2" s="46"/>
+      <c r="CE2" s="46"/>
+      <c r="CF2" s="46"/>
+      <c r="CG2" s="46"/>
+      <c r="CH2" s="46"/>
+      <c r="CI2" s="46"/>
+      <c r="CJ2" s="46"/>
+      <c r="CK2" s="46"/>
+      <c r="CL2" s="46"/>
+      <c r="CM2" s="46"/>
+      <c r="CN2" s="46"/>
+      <c r="CO2" s="46"/>
+      <c r="CP2" s="46"/>
+      <c r="CQ2" s="46"/>
+      <c r="CR2" s="48"/>
     </row>
     <row r="3" spans="1:96" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="48" t="s">
-        <v>31</v>
+      <c r="A3" s="49" t="s">
+        <v>25</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="52" t="s">
-        <v>30</v>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="53" t="s">
+        <v>24</v>
       </c>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="52"/>
-      <c r="AH3" s="52" t="s">
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AI3" s="52"/>
-      <c r="AJ3" s="52"/>
-      <c r="AK3" s="52"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="52"/>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="52"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="52"/>
-      <c r="AS3" s="52"/>
-      <c r="AT3" s="52"/>
-      <c r="AU3" s="52"/>
-      <c r="AV3" s="52"/>
-      <c r="AW3" s="52"/>
-      <c r="AX3" s="52"/>
-      <c r="AY3" s="52"/>
-      <c r="AZ3" s="52"/>
-      <c r="BA3" s="52"/>
-      <c r="BB3" s="52"/>
-      <c r="BC3" s="52"/>
-      <c r="BD3" s="52"/>
-      <c r="BE3" s="52"/>
-      <c r="BF3" s="52"/>
-      <c r="BG3" s="52"/>
-      <c r="BH3" s="52"/>
-      <c r="BI3" s="52"/>
-      <c r="BJ3" s="52"/>
-      <c r="BK3" s="52"/>
-      <c r="BL3" s="52"/>
-      <c r="BM3" s="52"/>
-      <c r="BN3" s="52"/>
-      <c r="BO3" s="52"/>
-      <c r="BP3" s="52"/>
-      <c r="BQ3" s="52"/>
-      <c r="BR3" s="52"/>
-      <c r="BS3" s="52"/>
-      <c r="BT3" s="52"/>
-      <c r="BU3" s="52"/>
-      <c r="BV3" s="52"/>
-      <c r="BW3" s="52" t="s">
-        <v>29</v>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="53"/>
+      <c r="AK3" s="53"/>
+      <c r="AL3" s="53"/>
+      <c r="AM3" s="53"/>
+      <c r="AN3" s="53"/>
+      <c r="AO3" s="53"/>
+      <c r="AP3" s="53"/>
+      <c r="AQ3" s="53"/>
+      <c r="AR3" s="53"/>
+      <c r="AS3" s="53"/>
+      <c r="AT3" s="53"/>
+      <c r="AU3" s="53"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="53"/>
+      <c r="AX3" s="53"/>
+      <c r="AY3" s="53"/>
+      <c r="AZ3" s="53"/>
+      <c r="BA3" s="53"/>
+      <c r="BB3" s="53"/>
+      <c r="BC3" s="53"/>
+      <c r="BD3" s="53"/>
+      <c r="BE3" s="53"/>
+      <c r="BF3" s="53"/>
+      <c r="BG3" s="53"/>
+      <c r="BH3" s="53"/>
+      <c r="BI3" s="53"/>
+      <c r="BJ3" s="53"/>
+      <c r="BK3" s="53"/>
+      <c r="BL3" s="53"/>
+      <c r="BM3" s="53"/>
+      <c r="BN3" s="53"/>
+      <c r="BO3" s="53"/>
+      <c r="BP3" s="53"/>
+      <c r="BQ3" s="53"/>
+      <c r="BR3" s="53"/>
+      <c r="BS3" s="53"/>
+      <c r="BT3" s="53"/>
+      <c r="BU3" s="53"/>
+      <c r="BV3" s="53"/>
+      <c r="BW3" s="53" t="s">
+        <v>23</v>
       </c>
-      <c r="BX3" s="52"/>
-      <c r="BY3" s="52"/>
-      <c r="BZ3" s="52"/>
-      <c r="CA3" s="52"/>
-      <c r="CB3" s="52"/>
-      <c r="CC3" s="52"/>
-      <c r="CD3" s="52"/>
-      <c r="CE3" s="52"/>
-      <c r="CF3" s="52"/>
-      <c r="CG3" s="52"/>
-      <c r="CH3" s="52"/>
-      <c r="CI3" s="52"/>
-      <c r="CJ3" s="52"/>
-      <c r="CK3" s="52"/>
-      <c r="CL3" s="52"/>
-      <c r="CM3" s="52"/>
-      <c r="CN3" s="52"/>
-      <c r="CO3" s="52"/>
-      <c r="CP3" s="52"/>
-      <c r="CQ3" s="52"/>
-      <c r="CR3" s="54"/>
+      <c r="BX3" s="53"/>
+      <c r="BY3" s="53"/>
+      <c r="BZ3" s="53"/>
+      <c r="CA3" s="53"/>
+      <c r="CB3" s="53"/>
+      <c r="CC3" s="53"/>
+      <c r="CD3" s="53"/>
+      <c r="CE3" s="53"/>
+      <c r="CF3" s="53"/>
+      <c r="CG3" s="53"/>
+      <c r="CH3" s="53"/>
+      <c r="CI3" s="53"/>
+      <c r="CJ3" s="53"/>
+      <c r="CK3" s="53"/>
+      <c r="CL3" s="53"/>
+      <c r="CM3" s="53"/>
+      <c r="CN3" s="53"/>
+      <c r="CO3" s="53"/>
+      <c r="CP3" s="53"/>
+      <c r="CQ3" s="53"/>
+      <c r="CR3" s="55"/>
     </row>
     <row r="4" spans="1:96" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="53"/>
-      <c r="AA4" s="53"/>
-      <c r="AB4" s="53"/>
-      <c r="AC4" s="53"/>
-      <c r="AD4" s="53"/>
-      <c r="AE4" s="53"/>
-      <c r="AF4" s="53"/>
-      <c r="AG4" s="53"/>
-      <c r="AH4" s="53"/>
-      <c r="AI4" s="53"/>
-      <c r="AJ4" s="53"/>
-      <c r="AK4" s="53"/>
-      <c r="AL4" s="53"/>
-      <c r="AM4" s="53"/>
-      <c r="AN4" s="53"/>
-      <c r="AO4" s="53"/>
-      <c r="AP4" s="53"/>
-      <c r="AQ4" s="53"/>
-      <c r="AR4" s="53"/>
-      <c r="AS4" s="53"/>
-      <c r="AT4" s="53"/>
-      <c r="AU4" s="53"/>
-      <c r="AV4" s="53"/>
-      <c r="AW4" s="53"/>
-      <c r="AX4" s="53"/>
-      <c r="AY4" s="53"/>
-      <c r="AZ4" s="53"/>
-      <c r="BA4" s="53"/>
-      <c r="BB4" s="53"/>
-      <c r="BC4" s="53"/>
-      <c r="BD4" s="53"/>
-      <c r="BE4" s="53"/>
-      <c r="BF4" s="53"/>
-      <c r="BG4" s="53"/>
-      <c r="BH4" s="53"/>
-      <c r="BI4" s="53"/>
-      <c r="BJ4" s="53"/>
-      <c r="BK4" s="53"/>
-      <c r="BL4" s="53"/>
-      <c r="BM4" s="53"/>
-      <c r="BN4" s="53"/>
-      <c r="BO4" s="53"/>
-      <c r="BP4" s="53"/>
-      <c r="BQ4" s="53"/>
-      <c r="BR4" s="53"/>
-      <c r="BS4" s="53"/>
-      <c r="BT4" s="53"/>
-      <c r="BU4" s="53"/>
-      <c r="BV4" s="53"/>
-      <c r="BW4" s="53"/>
-      <c r="BX4" s="53"/>
-      <c r="BY4" s="53"/>
-      <c r="BZ4" s="53"/>
-      <c r="CA4" s="53"/>
-      <c r="CB4" s="53"/>
-      <c r="CC4" s="53"/>
-      <c r="CD4" s="53"/>
-      <c r="CE4" s="53"/>
-      <c r="CF4" s="53"/>
-      <c r="CG4" s="53"/>
-      <c r="CH4" s="53"/>
-      <c r="CI4" s="53"/>
-      <c r="CJ4" s="53"/>
-      <c r="CK4" s="53"/>
-      <c r="CL4" s="53"/>
-      <c r="CM4" s="53"/>
-      <c r="CN4" s="53"/>
-      <c r="CO4" s="53"/>
-      <c r="CP4" s="53"/>
-      <c r="CQ4" s="53"/>
-      <c r="CR4" s="55"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="54"/>
+      <c r="AR4" s="54"/>
+      <c r="AS4" s="54"/>
+      <c r="AT4" s="54"/>
+      <c r="AU4" s="54"/>
+      <c r="AV4" s="54"/>
+      <c r="AW4" s="54"/>
+      <c r="AX4" s="54"/>
+      <c r="AY4" s="54"/>
+      <c r="AZ4" s="54"/>
+      <c r="BA4" s="54"/>
+      <c r="BB4" s="54"/>
+      <c r="BC4" s="54"/>
+      <c r="BD4" s="54"/>
+      <c r="BE4" s="54"/>
+      <c r="BF4" s="54"/>
+      <c r="BG4" s="54"/>
+      <c r="BH4" s="54"/>
+      <c r="BI4" s="54"/>
+      <c r="BJ4" s="54"/>
+      <c r="BK4" s="54"/>
+      <c r="BL4" s="54"/>
+      <c r="BM4" s="54"/>
+      <c r="BN4" s="54"/>
+      <c r="BO4" s="54"/>
+      <c r="BP4" s="54"/>
+      <c r="BQ4" s="54"/>
+      <c r="BR4" s="54"/>
+      <c r="BS4" s="54"/>
+      <c r="BT4" s="54"/>
+      <c r="BU4" s="54"/>
+      <c r="BV4" s="54"/>
+      <c r="BW4" s="54"/>
+      <c r="BX4" s="54"/>
+      <c r="BY4" s="54"/>
+      <c r="BZ4" s="54"/>
+      <c r="CA4" s="54"/>
+      <c r="CB4" s="54"/>
+      <c r="CC4" s="54"/>
+      <c r="CD4" s="54"/>
+      <c r="CE4" s="54"/>
+      <c r="CF4" s="54"/>
+      <c r="CG4" s="54"/>
+      <c r="CH4" s="54"/>
+      <c r="CI4" s="54"/>
+      <c r="CJ4" s="54"/>
+      <c r="CK4" s="54"/>
+      <c r="CL4" s="54"/>
+      <c r="CM4" s="54"/>
+      <c r="CN4" s="54"/>
+      <c r="CO4" s="54"/>
+      <c r="CP4" s="54"/>
+      <c r="CQ4" s="54"/>
+      <c r="CR4" s="56"/>
     </row>
     <row r="5" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
@@ -7009,7 +7018,7 @@
     <row r="6" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
       <c r="B6" s="14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -7856,7 +7865,7 @@
       <c r="AY22" s="10"/>
       <c r="AZ22" s="10"/>
       <c r="BB22" s="10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="BC22" s="10"/>
       <c r="CR22" s="12"/>
@@ -7883,7 +7892,7 @@
       <c r="AY23" s="10"/>
       <c r="AZ23" s="10"/>
       <c r="BB23" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BC23" s="10"/>
       <c r="CP23" s="10"/>
@@ -8362,9 +8371,7 @@
     <row r="37" spans="1:97" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9"/>
       <c r="O37" s="10"/>
-      <c r="P37" s="38" t="s">
-        <v>18</v>
-      </c>
+      <c r="P37" s="37"/>
       <c r="Q37" s="10"/>
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
@@ -8379,9 +8386,7 @@
       <c r="A38" s="9"/>
       <c r="F38" s="10"/>
       <c r="O38" s="10"/>
-      <c r="P38" s="38" t="s">
-        <v>17</v>
-      </c>
+      <c r="P38" s="37"/>
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
       <c r="S38" s="10"/>
@@ -8413,9 +8418,7 @@
     <row r="39" spans="1:97" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9"/>
       <c r="F39" s="10"/>
-      <c r="P39" s="56" t="s">
-        <v>34</v>
-      </c>
+      <c r="P39" s="39"/>
       <c r="AJ39" s="10"/>
       <c r="AK39" s="10"/>
       <c r="AL39" s="10"/>
@@ -8429,9 +8432,7 @@
     <row r="40" spans="1:97" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="9"/>
       <c r="F40" s="10"/>
-      <c r="P40" s="56" t="s">
-        <v>35</v>
-      </c>
+      <c r="P40" s="39"/>
       <c r="AJ40" s="10"/>
       <c r="AK40" s="10"/>
       <c r="AL40" s="10"/>
@@ -8612,7 +8613,7 @@
       <c r="AE52" s="10"/>
       <c r="AF52" s="10"/>
       <c r="BF52" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="CL52" s="10"/>
       <c r="CQ52" s="10"/>
@@ -8624,6 +8625,7 @@
       <c r="F53" s="10"/>
       <c r="AE53" s="10"/>
       <c r="AF53" s="10"/>
+      <c r="BF53" s="39"/>
       <c r="CL53" s="10"/>
       <c r="CQ53" s="10"/>
       <c r="CR53" s="12"/>
@@ -8758,7 +8760,7 @@
     <row r="61" spans="1:97" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="9"/>
       <c r="D61" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
@@ -8794,11 +8796,11 @@
     <row r="62" spans="1:97" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="9"/>
       <c r="D62" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F62" s="10"/>
       <c r="G62" s="10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="BL62" s="10"/>
       <c r="BM62" s="20"/>
@@ -8827,44 +8829,40 @@
     </row>
     <row r="63" spans="1:97" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="9"/>
-      <c r="D63" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
-      <c r="J63" s="39"/>
-      <c r="K63" s="39"/>
-      <c r="L63" s="39"/>
-      <c r="M63" s="39"/>
-      <c r="N63" s="39"/>
-      <c r="O63" s="39"/>
-      <c r="P63" s="39"/>
-      <c r="Q63" s="39"/>
-      <c r="R63" s="39"/>
-      <c r="S63" s="39"/>
-      <c r="T63" s="39"/>
-      <c r="U63" s="39"/>
-      <c r="V63" s="39"/>
-      <c r="W63" s="39"/>
-      <c r="X63" s="39"/>
-      <c r="Y63" s="39"/>
-      <c r="Z63" s="39"/>
-      <c r="AA63" s="39"/>
-      <c r="AB63" s="39"/>
-      <c r="AC63" s="39"/>
-      <c r="AD63" s="39"/>
-      <c r="AE63" s="39"/>
-      <c r="AF63" s="39"/>
-      <c r="AG63" s="39"/>
-      <c r="AH63" s="39"/>
-      <c r="AI63" s="39"/>
-      <c r="AJ63" s="39"/>
-      <c r="AK63" s="39"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="38"/>
+      <c r="M63" s="38"/>
+      <c r="N63" s="38"/>
+      <c r="O63" s="38"/>
+      <c r="P63" s="38"/>
+      <c r="Q63" s="38"/>
+      <c r="R63" s="38"/>
+      <c r="S63" s="38"/>
+      <c r="T63" s="38"/>
+      <c r="U63" s="38"/>
+      <c r="V63" s="38"/>
+      <c r="W63" s="38"/>
+      <c r="X63" s="38"/>
+      <c r="Y63" s="38"/>
+      <c r="Z63" s="38"/>
+      <c r="AA63" s="38"/>
+      <c r="AB63" s="38"/>
+      <c r="AC63" s="38"/>
+      <c r="AD63" s="38"/>
+      <c r="AE63" s="38"/>
+      <c r="AF63" s="38"/>
+      <c r="AG63" s="38"/>
+      <c r="AH63" s="38"/>
+      <c r="AI63" s="38"/>
+      <c r="AJ63" s="38"/>
+      <c r="AK63" s="38"/>
       <c r="BL63" s="10"/>
       <c r="BM63" s="10"/>
       <c r="BN63" s="21"/>
@@ -8892,42 +8890,40 @@
     </row>
     <row r="64" spans="1:97" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="9"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="39"/>
-      <c r="K64" s="39"/>
-      <c r="L64" s="39"/>
-      <c r="M64" s="39"/>
-      <c r="N64" s="39"/>
-      <c r="O64" s="39"/>
-      <c r="P64" s="39"/>
-      <c r="Q64" s="39"/>
-      <c r="R64" s="39"/>
-      <c r="S64" s="39"/>
-      <c r="T64" s="39"/>
-      <c r="U64" s="39"/>
-      <c r="V64" s="39"/>
-      <c r="W64" s="39"/>
-      <c r="X64" s="39"/>
-      <c r="Y64" s="39"/>
-      <c r="Z64" s="39"/>
-      <c r="AA64" s="39"/>
-      <c r="AB64" s="39"/>
-      <c r="AC64" s="39"/>
-      <c r="AD64" s="39"/>
-      <c r="AE64" s="39"/>
-      <c r="AF64" s="39"/>
-      <c r="AG64" s="39"/>
-      <c r="AH64" s="39"/>
-      <c r="AI64" s="39"/>
-      <c r="AJ64" s="39"/>
-      <c r="AK64" s="39"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="38"/>
+      <c r="K64" s="38"/>
+      <c r="L64" s="38"/>
+      <c r="M64" s="38"/>
+      <c r="N64" s="38"/>
+      <c r="O64" s="38"/>
+      <c r="P64" s="38"/>
+      <c r="Q64" s="38"/>
+      <c r="R64" s="38"/>
+      <c r="S64" s="38"/>
+      <c r="T64" s="38"/>
+      <c r="U64" s="38"/>
+      <c r="V64" s="38"/>
+      <c r="W64" s="38"/>
+      <c r="X64" s="38"/>
+      <c r="Y64" s="38"/>
+      <c r="Z64" s="38"/>
+      <c r="AA64" s="38"/>
+      <c r="AB64" s="38"/>
+      <c r="AC64" s="38"/>
+      <c r="AD64" s="38"/>
+      <c r="AE64" s="38"/>
+      <c r="AF64" s="38"/>
+      <c r="AG64" s="38"/>
+      <c r="AH64" s="38"/>
+      <c r="AI64" s="38"/>
+      <c r="AJ64" s="38"/>
+      <c r="AK64" s="38"/>
       <c r="BL64" s="10"/>
       <c r="BM64" s="10"/>
       <c r="BN64" s="21"/>
@@ -8951,42 +8947,40 @@
     </row>
     <row r="65" spans="1:97" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="9"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="H65" s="39"/>
-      <c r="I65" s="39"/>
-      <c r="J65" s="39"/>
-      <c r="K65" s="39"/>
-      <c r="L65" s="39"/>
-      <c r="M65" s="39"/>
-      <c r="N65" s="39"/>
-      <c r="O65" s="39"/>
-      <c r="P65" s="39"/>
-      <c r="Q65" s="39"/>
-      <c r="R65" s="39"/>
-      <c r="S65" s="39"/>
-      <c r="T65" s="39"/>
-      <c r="U65" s="39"/>
-      <c r="V65" s="39"/>
-      <c r="W65" s="39"/>
-      <c r="X65" s="39"/>
-      <c r="Y65" s="39"/>
-      <c r="Z65" s="39"/>
-      <c r="AA65" s="39"/>
-      <c r="AB65" s="39"/>
-      <c r="AC65" s="39"/>
-      <c r="AD65" s="39"/>
-      <c r="AE65" s="39"/>
-      <c r="AF65" s="39"/>
-      <c r="AG65" s="39"/>
-      <c r="AH65" s="39"/>
-      <c r="AI65" s="39"/>
-      <c r="AJ65" s="39"/>
-      <c r="AK65" s="39"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="38"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="38"/>
+      <c r="M65" s="38"/>
+      <c r="N65" s="38"/>
+      <c r="O65" s="38"/>
+      <c r="P65" s="38"/>
+      <c r="Q65" s="38"/>
+      <c r="R65" s="38"/>
+      <c r="S65" s="38"/>
+      <c r="T65" s="38"/>
+      <c r="U65" s="38"/>
+      <c r="V65" s="38"/>
+      <c r="W65" s="38"/>
+      <c r="X65" s="38"/>
+      <c r="Y65" s="38"/>
+      <c r="Z65" s="38"/>
+      <c r="AA65" s="38"/>
+      <c r="AB65" s="38"/>
+      <c r="AC65" s="38"/>
+      <c r="AD65" s="38"/>
+      <c r="AE65" s="38"/>
+      <c r="AF65" s="38"/>
+      <c r="AG65" s="38"/>
+      <c r="AH65" s="38"/>
+      <c r="AI65" s="38"/>
+      <c r="AJ65" s="38"/>
+      <c r="AK65" s="38"/>
       <c r="BL65" s="10"/>
       <c r="BM65" s="10"/>
       <c r="BN65" s="21"/>
